--- a/model_exports/labels/2.0_True_False_6_2.xlsx
+++ b/model_exports/labels/2.0_True_False_6_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C733"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-498854240069373953</t>
+          <t>t-536414184204800001</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,33 +466,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-498919835905327104</t>
+          <t>t-536957598252417024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-495123711071387649</t>
+          <t>t-793443964900737024</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-511851013155090432</t>
+          <t>t-933792655041064962</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,11 +505,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-512006361937616896</t>
+          <t>t-1025792018793021440</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-512017939579432960</t>
+          <t>t-1033470726521544704</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-900499401638129664</t>
+          <t>t-498854240069373953</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-900502092674215936</t>
+          <t>t-498919835905327104</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-1047160746386382848</t>
+          <t>t-577847446270832640</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,11 +570,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-977115036585021440</t>
+          <t>t-610974241895354368</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-498526651912032258</t>
+          <t>t-627039115188383744</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,24 +596,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-498546619508609024</t>
+          <t>t-690710236638777344</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-498600191088271361</t>
+          <t>t-690724653006921728</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,24 +622,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-498638581536399361</t>
+          <t>t-763135506188206084</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-498641690949713920</t>
+          <t>t-763744681616257025</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -648,37 +648,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-498643083517767681</t>
+          <t>t-764320260182806528</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-498648204872015872</t>
+          <t>t-585505175835648000</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-521738184288251906</t>
+          <t>t-588022316359151617</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -687,20 +687,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-521768704259162112</t>
+          <t>t-588515231380348928</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-575319219870437377</t>
+          <t>t-588525414441553920</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-575466667171426304</t>
+          <t>t-588659923807907840</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-583290347863851008</t>
+          <t>t-601392774370340865</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -752,7 +752,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-848784048755531776</t>
+          <t>t-681917420068564992</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-848852185962037248</t>
+          <t>t-682618491283857408</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-848864915762929664</t>
+          <t>t-693851248634810368</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,7 +791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-848891572318072832</t>
+          <t>t-719525216439910400</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,33 +804,33 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-849117747430797312</t>
+          <t>t-719704738913083392</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-849222321772658688</t>
+          <t>t-738281921046675456</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-849255695249625088</t>
+          <t>t-738404067647455232</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,33 +843,33 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-849369868306665472</t>
+          <t>t-738429326224302080</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-849634891255951364</t>
+          <t>t-738429350467543044</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-849637507117568000</t>
+          <t>t-771105696226025472</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,33 +882,33 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-849667565186146304</t>
+          <t>t-815615714082095105</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-849686849312501763</t>
+          <t>t-816012131535613952</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-849743357312024576</t>
+          <t>t-816043428630839296</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,11 +921,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-850026468906340353</t>
+          <t>t-816046695377158145</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -934,46 +934,46 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-850319148420694016</t>
+          <t>t-816056629867188225</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-850426637086842884</t>
+          <t>t-816367923770118149</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-850856929295552513</t>
+          <t>t-816380623434592257</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-865644367372967936</t>
+          <t>t-826627277026791424</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,24 +986,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-866152720700514304</t>
+          <t>t-848784048755531776</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-893450286144131072</t>
+          <t>t-848852185962037248</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -1012,33 +1012,33 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-906729471721570304</t>
+          <t>t-848864915762929664</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-910935192742842370</t>
+          <t>t-848891572318072832</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-911026776717103105</t>
+          <t>t-849117747430797312</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,50 +1051,50 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-977248381662892039</t>
+          <t>t-849222321772658688</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-977294782048428032</t>
+          <t>t-849255695249625088</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1003697920015851520</t>
+          <t>t-849369868306665472</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-1022084644039258112</t>
+          <t>t-849634891255951364</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-1052350536111013888</t>
+          <t>t-849637507117568000</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-1060177367417655297</t>
+          <t>t-849667565186146304</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1060184735106781189</t>
+          <t>t-849686849312501763</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,24 +1142,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1060185768549908480</t>
+          <t>t-849743357312024576</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1060186673835900928</t>
+          <t>t-850026468906340353</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1168,7 +1168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1060281450493136896</t>
+          <t>t-850319148420694016</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,46 +1181,46 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1060341719915470848</t>
+          <t>t-850426637086842884</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1060518882832658433</t>
+          <t>t-850856929295552513</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1060908480901640192</t>
+          <t>t-858824188815056896</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-513019810272137216</t>
+          <t>t-859408582407749634</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,11 +1233,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-812540411746975744</t>
+          <t>t-859423315986874372</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-502103720327671808</t>
+          <t>t-859882605604425731</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,33 +1259,33 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-827438952974004224</t>
+          <t>t-865644367372967936</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-934407049034846208</t>
+          <t>t-866152720700514304</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-503508088964800513</t>
+          <t>t-867771334083923968</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,33 +1298,33 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-503608708635844608</t>
+          <t>t-887086137789091841</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-517568253363634176</t>
+          <t>t-893450286144131072</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-518546395729379328</t>
+          <t>t-902187406123835394</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,63 +1337,63 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-519264703466315776</t>
+          <t>t-902225607563644928</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-615459121891012608</t>
+          <t>t-909776370410168323</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-746432967740882945</t>
+          <t>t-973668678867746816</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-801687875939078144</t>
+          <t>t-973683665661198337</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-841634951439220736</t>
+          <t>t-985145363618246656</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1402,37 +1402,37 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-924921911510949890</t>
+          <t>t-985306564868354049</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-924939317381758976</t>
+          <t>t-1024388985282383872</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-925210606361300992</t>
+          <t>t-1060177367417655297</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1441,11 +1441,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-925257914817892352</t>
+          <t>t-1060184735106781189</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1454,46 +1454,46 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-950256330316615680</t>
+          <t>t-1060185768549908480</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-992796128654524417</t>
+          <t>t-1060186673835900928</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-612750086443917313</t>
+          <t>t-1060281450493136896</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-507504670592356352</t>
+          <t>t-1060341719915470848</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,7 +1506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-507919904779948032</t>
+          <t>t-1060518882832658433</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,33 +1519,33 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-593974566453555201</t>
+          <t>t-1060908480901640192</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-710560200558653440</t>
+          <t>t-499691919128018944</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-824338590389960704</t>
+          <t>t-507610683022643200</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,20 +1558,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-908760840886767616</t>
+          <t>t-778024515909537792</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-910574474956812289</t>
+          <t>t-827438952974004224</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,20 +1584,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-923950718209359874</t>
+          <t>t-934407049034846208</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-923955178688188416</t>
+          <t>t-1026541253037453312</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-923988304076464128</t>
+          <t>t-1026546271392165888</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,11 +1623,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-984799310717030402</t>
+          <t>t-1026556162186117121</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-985113601743704064</t>
+          <t>t-1026678249978585088</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,20 +1649,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-985197038014001152</t>
+          <t>t-1026720073308925953</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1007699633349582849</t>
+          <t>t-503508088964800513</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-1007719195323269122</t>
+          <t>t-503608708635844608</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,20 +1688,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-1008223489369796609</t>
+          <t>t-619895281761423360</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-1008226683005087744</t>
+          <t>t-685243474623336449</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,11 +1714,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1008430016873394176</t>
+          <t>t-746432967740882945</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-1008458331160182784</t>
+          <t>t-835997827369156608</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,11 +1740,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-1008771230261039104</t>
+          <t>t-841634951439220736</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1753,11 +1753,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-1009061662731767808</t>
+          <t>t-958555465675362304</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-1009095412505022464</t>
+          <t>t-1015939762513956864</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,33 +1779,33 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-1009284771766140929</t>
+          <t>t-847556586600095745</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-1009553393331986433</t>
+          <t>t-858084101320056832</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-519554920140124160</t>
+          <t>t-858490544007327747</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,37 +1818,37 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-641288611472654336</t>
+          <t>t-1006061673487138817</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-836993229967015937</t>
+          <t>t-507504670592356352</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-837317730147713024</t>
+          <t>t-507919904779948032</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-858145943971037184</t>
+          <t>t-619513224057061376</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-858516314167627776</t>
+          <t>t-621832039763849218</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,11 +1883,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-878362748232622081</t>
+          <t>t-621845142903754752</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -1896,50 +1896,50 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-981162868749033472</t>
+          <t>t-639446444949180417</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-981305166392692736</t>
+          <t>t-903082857492566018</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-981306180961275904</t>
+          <t>t-908760840886767616</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-1000477141224558594</t>
+          <t>t-984799310717030402</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-676490487717625856</t>
+          <t>t-985113601743704064</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,7 +1961,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-676517665188507650</t>
+          <t>t-985197038014001152</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,33 +1974,33 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-638954151821594624</t>
+          <t>t-1007699633349582849</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-639060084857929728</t>
+          <t>t-1007719195323269122</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-871833381906067459</t>
+          <t>t-1008223489369796609</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-948484381987037185</t>
+          <t>t-1008226683005087744</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,24 +2026,24 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-948486603227451392</t>
+          <t>t-1008430016873394176</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-948505461745168384</t>
+          <t>t-1008458331160182784</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2052,24 +2052,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-948538940134477824</t>
+          <t>t-1008771230261039104</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-948573984802689025</t>
+          <t>t-1009061662731767808</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-953935668199215104</t>
+          <t>t-1009095412505022464</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,7 +2091,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-953991296196149248</t>
+          <t>t-1009284771766140929</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,7 +2104,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-1042485319055155201</t>
+          <t>t-1009553393331986433</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,7 +2117,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-540871484869472256</t>
+          <t>t-511616761545121792</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,20 +2130,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-928583361618169856</t>
+          <t>t-767772450964725760</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-552038248218767360</t>
+          <t>t-580481361141743616</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,46 +2156,46 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-552266751304798209</t>
+          <t>t-770209564532674560</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-583930739512713216</t>
+          <t>t-832310546871484416</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-671527403521462276</t>
+          <t>t-840253641885913088</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-833840054363619329</t>
+          <t>t-1005217349610426371</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,46 +2208,46 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-546995440701296643</t>
+          <t>t-1031705611933831168</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-760723550810628097</t>
+          <t>t-697866091025080320</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-841795901764993024</t>
+          <t>t-681802042885697536</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-841877177624850434</t>
+          <t>t-682128192019234816</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2260,33 +2260,33 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-625832003070509056</t>
+          <t>t-682147581405859841</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-626848405877301248</t>
+          <t>t-682223092198936576</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-752638920505131008</t>
+          <t>t-682287065824931840</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,7 +2299,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-778616752993214464</t>
+          <t>t-682459381347254272</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,20 +2312,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-873219337427062785</t>
+          <t>t-682632199527641089</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-879367414802153472</t>
+          <t>t-682755737790099456</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,33 +2338,33 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-1035595539918848000</t>
+          <t>t-682908634020470785</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-602966767602831362</t>
+          <t>t-682915879026339840</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-602969826642898945</t>
+          <t>t-683017640638582784</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,11 +2377,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-603005702697713664</t>
+          <t>t-683036658942513152</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2390,20 +2390,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-611182304984109057</t>
+          <t>t-683077568287866880</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-603598228022501376</t>
+          <t>t-683235960692314112</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2416,11 +2416,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-720931143055491072</t>
+          <t>t-683258563628777472</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -2429,20 +2429,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-598299676807340033</t>
+          <t>t-683386799184543745</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-894558986925744129</t>
+          <t>t-683399457254326272</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-618586257753374720</t>
+          <t>t-683602691965206528</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,11 +2468,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-791266893470568448</t>
+          <t>t-683628764622905344</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2481,33 +2481,33 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-791268686447378433</t>
+          <t>t-683644184683753472</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-886294080040423425</t>
+          <t>t-683649428587155456</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-828748393916809216</t>
+          <t>t-683773064040050688</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,11 +2520,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-829760036348035072</t>
+          <t>t-683968472968228864</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -2533,11 +2533,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-834484332148297728</t>
+          <t>t-683979793273065473</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2546,33 +2546,33 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-636384018599030785</t>
+          <t>t-684007082555748352</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-715573202714562561</t>
+          <t>t-684323489562558465</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-806138760937271296</t>
+          <t>t-685408547975331840</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,11 +2585,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-865899138726100992</t>
+          <t>t-986144781721104384</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2598,59 +2598,59 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-1003953189820010496</t>
+          <t>t-919827029243187200</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-671936284651196416</t>
+          <t>t-919919408797151233</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-903173716451909632</t>
+          <t>t-919933275422027776</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-861649200160710656</t>
+          <t>t-919961378433224704</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-883046827251179521</t>
+          <t>t-920296060211400704</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,76 +2663,76 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-883048887786909698</t>
+          <t>t-955387095228567552</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-883064523128791040</t>
+          <t>t-986841970411823104</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-883077275679432704</t>
+          <t>t-682141165802631168</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-730685047137800192</t>
+          <t>t-547131830642569216</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-730687533638619136</t>
+          <t>t-559857374312529920</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-733452580194410497</t>
+          <t>t-559902019893202944</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -2741,24 +2741,24 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-840282206979444737</t>
+          <t>t-760723550810628097</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-840289139450925056</t>
+          <t>t-782023965489238017</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-875514382276538369</t>
+          <t>t-872693400436219904</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,7 +2780,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-758205502480388096</t>
+          <t>t-560163999057448960</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,24 +2793,24 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-758575120290091008</t>
+          <t>t-758769139905204224</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-782856010625003521</t>
+          <t>t-879367414802153472</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2819,20 +2819,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-799981773354463232</t>
+          <t>t-985892254756884480</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-799998393695305728</t>
+          <t>t-595961510528180224</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-800091318642950144</t>
+          <t>t-720931143055491072</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,11 +2858,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-889517070559334400</t>
+          <t>t-986530301030682624</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -2871,46 +2871,46 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-1044637096198041600</t>
+          <t>t-618586257753374720</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-1025638750783778816</t>
+          <t>t-621245283935121408</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-1054403005032947712</t>
+          <t>t-708373253648207873</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-898040952396193792</t>
+          <t>t-745905684248694789</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,20 +2923,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-898113774225301505</t>
+          <t>t-745992462448140288</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-985241133159796736</t>
+          <t>t-746083614291562497</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,7 +2949,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-1031076096287105024</t>
+          <t>t-870660332800397312</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,24 +2962,24 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-507905858265960448</t>
+          <t>t-870684149173977089</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-863311681820258304</t>
+          <t>t-972059634101047296</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2988,7 +2988,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-911670405483651072</t>
+          <t>t-987005505154535425</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-530194842861580288</t>
+          <t>t-756982430985166848</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,20 +3014,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-601913063172771840</t>
+          <t>t-756983738035077120</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-602589391198900226</t>
+          <t>t-757172169029804034</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,24 +3040,24 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-635524506925314049</t>
+          <t>t-828748393916809216</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-662196453281038336</t>
+          <t>t-829760036348035072</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -3066,63 +3066,63 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-682987194840150016</t>
+          <t>t-806138760937271296</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-708426270242164736</t>
+          <t>t-941641219024748544</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-721832870604640260</t>
+          <t>t-1006535367464509440</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-721856912548044800</t>
+          <t>t-1006670876169949190</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-722873292755828736</t>
+          <t>t-707739170878439424</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -3131,7 +3131,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-735525963610660865</t>
+          <t>t-899745107900940288</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,85 +3144,85 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-736203598091190272</t>
+          <t>t-899747204986019844</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-746718356405882880</t>
+          <t>t-876214781744750592</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-794700824404430848</t>
+          <t>t-780856348493832192</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-821459572263100416</t>
+          <t>t-782856010625003521</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-833578679338942464</t>
+          <t>t-864813217943441412</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1028684190169149440</t>
+          <t>t-888405582352437248</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1028764502517592065</t>
+          <t>t-898040952396193792</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,37 +3235,37 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1050012662120235008</t>
+          <t>t-898113774225301505</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-533407970244456448</t>
+          <t>t-1031076096287105024</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-611619605899939841</t>
+          <t>t-1050667252591120384</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-620793830413959168</t>
+          <t>t-514175192319680513</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-634745305263640576</t>
+          <t>t-657266493659435008</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,7 +3300,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-643122505524322304</t>
+          <t>t-692385146725646340</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,11 +3313,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-763041051426775040</t>
+          <t>t-530194842861580288</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -3326,11 +3326,11 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-763066608868794368</t>
+          <t>t-536338799517634560</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -3339,20 +3339,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-763135787424636928</t>
+          <t>t-601913063172771840</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-886785151694512128</t>
+          <t>t-602589391198900226</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,20 +3365,20 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-886797636501520384</t>
+          <t>t-635524506925314049</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-886952472035549185</t>
+          <t>t-715206020902084609</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-887152237432061952</t>
+          <t>t-715208550243557376</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-887308832208293888</t>
+          <t>t-715210823002562560</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,24 +3417,24 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-888147986982649856</t>
+          <t>t-715215011178803200</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-619624637685755904</t>
+          <t>t-785997107094093825</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,11 +3443,11 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-673774894543470592</t>
+          <t>t-833578679338942464</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -3456,7 +3456,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-673911765848035328</t>
+          <t>t-907946100618907648</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-580289963599765504</t>
+          <t>t-911712205657317376</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-594878604397432832</t>
+          <t>t-978842874749046784</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,7 +3495,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-609714781507993601</t>
+          <t>t-979067875213234176</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,11 +3508,11 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-609790992309469184</t>
+          <t>t-998567520113225733</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -3521,20 +3521,20 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-609807635727151104</t>
+          <t>t-1026272267364253698</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-610006959677382657</t>
+          <t>t-1035669454246563841</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,37 +3547,37 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-610466198136954881</t>
+          <t>t-1050012662120235008</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-745683270160027648</t>
+          <t>t-620793830413959168</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-755726869270523904</t>
+          <t>t-634745305263640576</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3586,11 +3586,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-799654742746165248</t>
+          <t>t-886785151694512128</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3599,7 +3599,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-802968858214760448</t>
+          <t>t-886797636501520384</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,7 +3612,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-802970857136123904</t>
+          <t>t-886952472035549185</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,7 +3625,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-802986234171768832</t>
+          <t>t-887152237432061952</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,7 +3638,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-802996470555279360</t>
+          <t>t-887308832208293888</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,46 +3651,46 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-803023904860151808</t>
+          <t>t-888147986982649856</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-803063479473176576</t>
+          <t>t-1004794708802048002</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-803165461336555521</t>
+          <t>t-1008536493269237760</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-803184972723081216</t>
+          <t>t-1016850546236542983</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,7 +3703,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-803191488880513024</t>
+          <t>t-1029525697382047746</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,59 +3716,59 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-803213114628014080</t>
+          <t>t-1029541696839798791</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-803415757417758721</t>
+          <t>t-1029769212384948225</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-804486553280069633</t>
+          <t>t-534896855906537472</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-845940693256286208</t>
+          <t>t-761355220198756352</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-856624832292827137</t>
+          <t>t-761372714925891586</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,33 +3781,33 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-919174352289005568</t>
+          <t>t-836289804664979457</t>
         </is>
       </c>
       <c r="B258" t="n">
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-919528265718665216</t>
+          <t>t-1042440160749780992</t>
         </is>
       </c>
       <c r="B259" t="n">
         <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-953220290657492992</t>
+          <t>t-538650662780022784</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,46 +3820,46 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-968863674306834432</t>
+          <t>t-630004911024046080</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-984477965856772096</t>
+          <t>t-630051857654751232</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-984491425478971393</t>
+          <t>t-630833400857919488</t>
         </is>
       </c>
       <c r="B263" t="n">
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-984517270725644288</t>
+          <t>t-673837939248472064</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,63 +3872,63 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-985567499843489798</t>
+          <t>t-681483416165048320</t>
         </is>
       </c>
       <c r="B265" t="n">
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-1003317489990848512</t>
+          <t>t-708952691926548480</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-1003350897521459202</t>
+          <t>t-739781293882347520</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-1003359993201025024</t>
+          <t>t-745683270160027648</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-1003379549600731139</t>
+          <t>t-799654742746165248</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3937,7 +3937,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-1049984041888505856</t>
+          <t>t-856624832292827137</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,7 +3950,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-1051063984038776837</t>
+          <t>t-903533073358352385</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,46 +3963,46 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-1057289433236545538</t>
+          <t>t-903589529143189504</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-1045126070540865541</t>
+          <t>t-1006258184636510210</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-545590349045833728</t>
+          <t>t-1026228357996969984</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-602992695011889152</t>
+          <t>t-1052331593933688832</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,7 +4015,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-659041979200880644</t>
+          <t>t-1052814538419003392</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,11 +4028,11 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-696805827110428676</t>
+          <t>t-1052930779947393024</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-817123537488084993</t>
+          <t>t-1052972300667146241</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,24 +4054,24 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-1026494793466048518</t>
+          <t>t-1053005694822207488</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-655077150693990401</t>
+          <t>t-1053014697077817346</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -4080,20 +4080,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-669588910935285760</t>
+          <t>t-1053091674438725632</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-669601333348073473</t>
+          <t>t-1053211878921568256</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,11 +4106,11 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-698062078922375169</t>
+          <t>t-1053220103070932992</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -4119,20 +4119,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-769170271928483840</t>
+          <t>t-1053451825607774209</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-801380815166930945</t>
+          <t>t-1053915265375834112</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,20 +4145,20 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-946151169231114241</t>
+          <t>t-1061999891080232961</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-1060159476664356864</t>
+          <t>t-1063070010954932224</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,11 +4171,11 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-563347902408695811</t>
+          <t>t-1063412203389370368</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -4184,11 +4184,11 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-933464546110529538</t>
+          <t>t-1063455159370637313</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -4197,20 +4197,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-573120640175112192</t>
+          <t>t-1063463128409800704</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-686490326228402176</t>
+          <t>t-1063508201319079936</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-687307828932030464</t>
+          <t>t-1063552348386140165</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-698124151282864129</t>
+          <t>t-910953097316376576</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,20 +4249,20 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-698267386730975232</t>
+          <t>t-910955895714123776</t>
         </is>
       </c>
       <c r="B294" t="n">
         <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-698288943490535428</t>
+          <t>t-545590349045833728</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,11 +4275,11 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-698457478183301120</t>
+          <t>t-602992695011889152</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -4288,11 +4288,11 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-698469723680464897</t>
+          <t>t-696805827110428676</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -4301,7 +4301,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-698599200850898944</t>
+          <t>t-817123537488084993</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-698812315353903104</t>
+          <t>t-893162180492787716</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,85 +4327,85 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-573292412430376960</t>
+          <t>t-1026494793466048518</t>
         </is>
       </c>
       <c r="B300" t="n">
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-628489671656517632</t>
+          <t>t-670921727346614272</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-880769643060842496</t>
+          <t>t-769170271928483840</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-913738686994501632</t>
+          <t>t-901071860456185856</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-913756608974540800</t>
+          <t>t-951353773321945088</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-913812012400087040</t>
+          <t>t-951370648210767877</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-571264964683436033</t>
+          <t>t-563347902408695811</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,7 +4418,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-576618970368876544</t>
+          <t>t-573120640175112192</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,7 +4431,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-783130241195585536</t>
+          <t>t-592720340289224705</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,11 +4444,11 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-783135151601704960</t>
+          <t>t-636560790015877120</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -4457,11 +4457,11 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-892449776129777665</t>
+          <t>t-636561226298970112</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -4470,7 +4470,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-892462041277091840</t>
+          <t>t-636561581355204609</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,11 +4483,11 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-892471980875808773</t>
+          <t>t-636600809573220352</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
         <v>1</v>
@@ -4496,7 +4496,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-892472490483646466</t>
+          <t>t-636742652692688896</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,7 +4509,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-892606487482089472</t>
+          <t>t-722677158112587776</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,7 +4522,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-892633367342088192</t>
+          <t>t-772934103733788672</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,24 +4535,24 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-892700840817045504</t>
+          <t>t-772960588171403264</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-892731725897281538</t>
+          <t>t-773538620472979456</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -4561,7 +4561,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-1012441483654332417</t>
+          <t>t-773979956305100800</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,7 +4574,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-572808490965733378</t>
+          <t>t-800018818399694848</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,7 +4587,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-599363330575364096</t>
+          <t>t-800716652195282946</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,20 +4600,20 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-831479807821103104</t>
+          <t>t-894726430050754561</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-831825002534154241</t>
+          <t>t-992126872036233224</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,11 +4626,11 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-1052977443760427009</t>
+          <t>t-993085432052273153</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -4639,20 +4639,20 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-873677712304463872</t>
+          <t>t-567287806645395457</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-1002347419114311681</t>
+          <t>t-576618970368876544</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,20 +4665,20 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-579030352271917056</t>
+          <t>t-578003881596215296</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-579089809991331841</t>
+          <t>t-741029103147442176</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,33 +4691,33 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-935929183758356480</t>
+          <t>t-887375379186548736</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-599007393494605824</t>
+          <t>t-897976904019476481</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-599125027116568576</t>
+          <t>t-906773843066441728</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,59 +4730,59 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-601384798897115138</t>
+          <t>t-906922961621454848</t>
         </is>
       </c>
       <c r="B331" t="n">
         <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-724222646435508224</t>
+          <t>t-906981528483364865</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-766980130283610112</t>
+          <t>t-906982446905876480</t>
         </is>
       </c>
       <c r="B333" t="n">
         <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-872233585960337408</t>
+          <t>t-924289234399322112</t>
         </is>
       </c>
       <c r="B334" t="n">
         <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-878774409280016384</t>
+          <t>t-1042410099652919297</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,46 +4795,46 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-1041460734738063360</t>
+          <t>t-572808490965733378</t>
         </is>
       </c>
       <c r="B336" t="n">
         <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-1041507023660081152</t>
+          <t>t-573279947445420034</t>
         </is>
       </c>
       <c r="B337" t="n">
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-629437596280750080</t>
+          <t>t-599363330575364096</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-680032445673148416</t>
+          <t>t-860196024056414208</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-671722697408290816</t>
+          <t>t-1052977443760427009</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,7 +4860,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-1006709802775412736</t>
+          <t>t-821077876112035840</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,59 +4873,59 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-660109346915770368</t>
+          <t>t-821090113476325376</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-660117216885477376</t>
+          <t>t-837738761547091968</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-660467638917660672</t>
+          <t>t-1042391419745435648</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-762742863394254850</t>
+          <t>t-599007393494605824</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-922944953696899072</t>
+          <t>t-599125027116568576</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-922950403255341056</t>
+          <t>t-766980130283610112</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,85 +4951,85 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-922959565792083968</t>
+          <t>t-851578277311373312</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-677631116958896129</t>
+          <t>t-872233585960337408</t>
         </is>
       </c>
       <c r="B349" t="n">
         <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-1001848606427697153</t>
+          <t>t-912188711261036544</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-692348550416633857</t>
+          <t>t-912397778260840448</t>
         </is>
       </c>
       <c r="B351" t="n">
         <v>1</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-694804362510503936</t>
+          <t>t-912428211253972997</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-931989476401926144</t>
+          <t>t-914224756555055104</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-733752725972746240</t>
+          <t>t-622598644009668608</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,7 +5042,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-733764949433012224</t>
+          <t>t-1055172080499515392</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,7 +5055,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-751165986527674368</t>
+          <t>t-1055204302220943368</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,11 +5068,11 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-751167208219406336</t>
+          <t>t-651424335614353409</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -5081,11 +5081,11 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-1029396532313968640</t>
+          <t>t-651596952564572160</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -5094,46 +5094,46 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-1029397392343425024</t>
+          <t>t-677918822104473600</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-1029408763877498885</t>
+          <t>t-655890642334257152</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-1029408838305361921</t>
+          <t>t-886426015374946304</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-1029566349918527488</t>
+          <t>t-904587230177443840</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,59 +5146,59 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-1046763431649574912</t>
+          <t>t-905072243822264320</t>
         </is>
       </c>
       <c r="B363" t="n">
         <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-880159202567753728</t>
+          <t>t-905081971667296257</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-998557475266859013</t>
+          <t>t-905280030833614849</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-999117713749495808</t>
+          <t>t-762742863394254850</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-765596657039708160</t>
+          <t>t-679420394223345665</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,7 +5211,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-766010493563568129</t>
+          <t>t-694804362510503936</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,46 +5224,46 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-965898424523591681</t>
+          <t>t-736405703838044160</t>
         </is>
       </c>
       <c r="B369" t="n">
         <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-796435007673946112</t>
+          <t>t-853267425386803200</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-796529318373584896</t>
+          <t>t-744360846420107265</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-796701113995104256</t>
+          <t>t-749466819581411328</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,11 +5276,11 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-796745584795389952</t>
+          <t>t-1044155993779851264</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-803919035318628352</t>
+          <t>t-751197637794230272</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,76 +5302,76 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-804312701002457088</t>
+          <t>t-1011820273774006272</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-814469186323939328</t>
+          <t>t-1012308763422937089</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-817388602090987520</t>
+          <t>t-1021764160093401089</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-850470638624133120</t>
+          <t>t-1022188431483387905</t>
         </is>
       </c>
       <c r="B378" t="n">
         <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-852608222380924929</t>
+          <t>t-1022188766964998144</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-852804949515698178</t>
+          <t>t-1022577266117824514</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -5380,46 +5380,46 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-848529770258288642</t>
+          <t>t-1023560708376748032</t>
         </is>
       </c>
       <c r="B381" t="n">
         <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-850386711385260034</t>
+          <t>t-1023767948165562368</t>
         </is>
       </c>
       <c r="B382" t="n">
         <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-884885746984681473</t>
+          <t>t-1023931290045829121</t>
         </is>
       </c>
       <c r="B383" t="n">
         <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-884938114657128448</t>
+          <t>t-1024052229152669696</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5432,7 +5432,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-1026649986782650369</t>
+          <t>t-753754552936136704</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5445,11 +5445,11 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-1036704309923246081</t>
+          <t>t-772460103026868224</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -5458,46 +5458,46 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-913905079392047105</t>
+          <t>t-913112779548176384</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-974764041968132096</t>
+          <t>t-895778141523894272</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-974840717116956673</t>
+          <t>t-904025443510214656</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-1045400324041846785</t>
+          <t>t-904025763938217984</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,20 +5510,20 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-588767869539733506</t>
+          <t>t-904026823356506112</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-630691491766251520</t>
+          <t>t-965898424523591681</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,46 +5536,46 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-702986489890775040</t>
+          <t>t-804685877838565376</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-703410728628305920</t>
+          <t>t-812266777711431682</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-952288702339997696</t>
+          <t>t-1049947970664304640</t>
         </is>
       </c>
       <c r="B395" t="n">
         <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-952549733930885120</t>
+          <t>t-849301263959420929</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,11 +5588,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-952956945098473472</t>
+          <t>t-860847907427233792</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -5601,11 +5601,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-954911597251657728</t>
+          <t>t-877327075954245633</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -5614,33 +5614,33 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-989520576460001280</t>
+          <t>t-1052284815779622917</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-1040961500553388033</t>
+          <t>t-1052565742183272454</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-635439309563260929</t>
+          <t>t-1052712831517450241</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,11 +5653,11 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-635461097114484736</t>
+          <t>t-905261367573090305</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -5666,11 +5666,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-635467880918818816</t>
+          <t>t-912214251749744641</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -5679,24 +5679,24 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-635469518022803456</t>
+          <t>t-913513656511614977</t>
         </is>
       </c>
       <c r="B404" t="n">
         <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-635491308438728704</t>
+          <t>t-913905079392047105</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
         <v>1</v>
@@ -5705,7 +5705,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-635718998781390848</t>
+          <t>t-1041752836835614720</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,50 +5718,50 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-636228687013265410</t>
+          <t>t-519240969838166016</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-642734533335453700</t>
+          <t>t-708340740556980225</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-953177789628407808</t>
+          <t>t-881960500829016064</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-953520796361744384</t>
+          <t>t-991032269405073408</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -5770,20 +5770,20 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-517992573227778048</t>
+          <t>t-991077450368061440</t>
         </is>
       </c>
       <c r="B411" t="n">
         <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-737657149174730753</t>
+          <t>t-1022200671666401281</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,11 +5796,11 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-737657922885423104</t>
+          <t>t-519370037812277248</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-738291666285694976</t>
+          <t>t-538351189679939584</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,7 +5822,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-750337554457694208</t>
+          <t>t-642734533335453700</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,20 +5835,20 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-589443945773535232</t>
+          <t>t-750337554457694208</t>
         </is>
       </c>
       <c r="B416" t="n">
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-901639048464388096</t>
+          <t>t-869830075268685825</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-901662243594612737</t>
+          <t>t-782797044729741312</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,50 +5874,50 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-901835893232857088</t>
+          <t>t-801681235982557184</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-901991202857377792</t>
+          <t>t-1001002093895921665</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-902096694422228992</t>
+          <t>t-738708820491259904</t>
         </is>
       </c>
       <c r="B421" t="n">
         <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-902156696407216129</t>
+          <t>t-738754856811417601</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5926,7 +5926,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-902188288789925889</t>
+          <t>t-738830571351224320</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,20 +5939,20 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-902258946840313856</t>
+          <t>t-739181708906467329</t>
         </is>
       </c>
       <c r="B424" t="n">
         <v>1</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-902339386959958016</t>
+          <t>t-957544710825967616</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -5965,20 +5965,20 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-902474134315302912</t>
+          <t>t-538736663154135040</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-586533262912315392</t>
+          <t>t-595190714205634560</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,24 +5991,24 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-738967171397758976</t>
+          <t>t-737049601983840256</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-529740815221153793</t>
+          <t>t-737149037674147840</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -6017,7 +6017,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-676099835372654592</t>
+          <t>t-737191991822409729</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6030,7 +6030,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-788324770765008896</t>
+          <t>t-737354227509518336</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,20 +6043,20 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-955738647663431681</t>
+          <t>t-737535367486676992</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-955740876436844544</t>
+          <t>t-737536409473421313</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,7 +6069,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-956201264915910656</t>
+          <t>t-737576761286787074</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,7 +6082,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-591871892283334656</t>
+          <t>t-737578269373960195</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,11 +6095,11 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-608655874496692224</t>
+          <t>t-737714265268834304</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -6108,124 +6108,124 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-609338660572536832</t>
+          <t>t-737924468329328640</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-609783303168782337</t>
+          <t>t-737947084494622720</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-610483675487203328</t>
+          <t>t-738026122630332416</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-629222720161640449</t>
+          <t>t-738039322344075265</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-737049601983840256</t>
+          <t>t-738045153693335552</t>
         </is>
       </c>
       <c r="B441" t="n">
         <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-737149037674147840</t>
+          <t>t-738399731303514112</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-737191991822409729</t>
+          <t>t-738417134443859970</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-737354227509518336</t>
+          <t>t-738432094909698048</t>
         </is>
       </c>
       <c r="B444" t="n">
         <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-737535367486676992</t>
+          <t>t-738465959694860289</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-737536409473421313</t>
+          <t>t-738495271307513856</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,7 +6238,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-737576761286787074</t>
+          <t>t-738626782371426304</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,11 +6251,11 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-737578269373960195</t>
+          <t>t-738645010103603200</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -6264,7 +6264,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-737714265268834304</t>
+          <t>t-738707246943719426</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,11 +6277,11 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-737924468329328640</t>
+          <t>t-738992446231719937</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -6290,11 +6290,11 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-737947084494622720</t>
+          <t>t-739020531689721856</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -6303,20 +6303,20 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-738026122630332416</t>
+          <t>t-739105047078948864</t>
         </is>
       </c>
       <c r="B452" t="n">
         <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-738039322344075265</t>
+          <t>t-739154724495228928</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,7 +6329,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-738045153693335552</t>
+          <t>t-739161314166214656</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,7 +6342,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-738399731303514112</t>
+          <t>t-739753236761055232</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -6355,7 +6355,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-738417134443859970</t>
+          <t>t-739763139001094144</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,7 +6368,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-738432094909698048</t>
+          <t>t-739766081125011456</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,20 +6381,20 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-738465959694860289</t>
+          <t>t-739840205935546368</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-738495271307513856</t>
+          <t>t-739892598974861314</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,11 +6407,11 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-738626782371426304</t>
+          <t>t-740068412177715200</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
         <v>1</v>
@@ -6420,11 +6420,11 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-738645010103603200</t>
+          <t>t-740070843053662208</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -6433,50 +6433,50 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-738707246943719426</t>
+          <t>t-740092206627880960</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-738992446231719937</t>
+          <t>t-740465124390080515</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-739020531689721856</t>
+          <t>t-740535202582253568</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-739105047078948864</t>
+          <t>t-740538191267106816</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -6485,33 +6485,33 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-739154724495228928</t>
+          <t>t-741179165198536704</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-739161314166214656</t>
+          <t>t-806453539409162240</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-739753236761055232</t>
+          <t>t-806476961451216896</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,11 +6524,11 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-739763139001094144</t>
+          <t>t-913063437118341121</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -6537,11 +6537,11 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-739766081125011456</t>
+          <t>t-914844848359985152</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -6550,20 +6550,20 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-739840205935546368</t>
+          <t>t-915131811310714880</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-739892598974861314</t>
+          <t>t-915495031691235329</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -6576,7 +6576,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-740068412177715200</t>
+          <t>t-915561177966505984</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,24 +6589,24 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-740070843053662208</t>
+          <t>t-1024937575906271233</t>
         </is>
       </c>
       <c r="B474" t="n">
         <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-740092206627880960</t>
+          <t>t-652506002957422592</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -6615,24 +6615,24 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-740465124390080515</t>
+          <t>t-1056877276875374593</t>
         </is>
       </c>
       <c r="B476" t="n">
         <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-740535202582253568</t>
+          <t>t-712150675111727105</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
         <v>0</v>
@@ -6641,11 +6641,11 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-740538191267106816</t>
+          <t>t-818362228881719296</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -6654,20 +6654,20 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-741179165198536704</t>
+          <t>t-818369931054030848</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-748093412272910336</t>
+          <t>t-818390305326137344</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,11 +6680,11 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-787588682731626496</t>
+          <t>t-818474161949601796</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="n">
         <v>0</v>
@@ -6693,11 +6693,11 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-834770863664795650</t>
+          <t>t-818513625468010496</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
         <v>1</v>
@@ -6706,7 +6706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-842006165705875457</t>
+          <t>t-818701658280628224</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,20 +6719,20 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-884135398854635520</t>
+          <t>t-818709014498443264</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-884163532958441472</t>
+          <t>t-819113813505146880</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,11 +6745,11 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-884173621224239104</t>
+          <t>t-958216984176427008</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -6758,7 +6758,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-884176826679136256</t>
+          <t>t-972395558735368192</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,11 +6771,11 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-884179431887167489</t>
+          <t>t-565566410605473792</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
         <v>1</v>
@@ -6784,20 +6784,20 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-884282035384320001</t>
+          <t>t-801715561692626944</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-884290062598451200</t>
+          <t>t-801720307002339328</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,11 +6810,11 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-884310032518664194</t>
+          <t>t-1048216558785449986</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
         <v>0</v>
@@ -6823,11 +6823,11 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-884325033430200320</t>
+          <t>t-575707186204180480</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -6836,20 +6836,20 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-914844848359985152</t>
+          <t>t-888068991020929025</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-915131811310714880</t>
+          <t>t-580368693688999936</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,7 +6862,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-915495031691235329</t>
+          <t>t-760176410539528192</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,24 +6875,24 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-915561177966505984</t>
+          <t>t-859839256700882944</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-1001548678748954624</t>
+          <t>t-860843222091935744</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -6901,7 +6901,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-1001557802375110657</t>
+          <t>t-861496628741640192</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,20 +6914,20 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-1008363588552151040</t>
+          <t>t-993886363249455104</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-1024937575906271233</t>
+          <t>t-583486848426713088</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,11 +6940,11 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-545381752093806593</t>
+          <t>t-712917955391172609</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
         <v>0</v>
@@ -6953,7 +6953,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-750337802257129474</t>
+          <t>t-742289179535659008</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,7 +6966,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-557320938375905282</t>
+          <t>t-743359058392940544</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,46 +6979,46 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-831105804946247681</t>
+          <t>t-940281474259062789</t>
         </is>
       </c>
       <c r="B504" t="n">
         <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-917052938425716736</t>
+          <t>t-690751741676142592</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-917054284579078144</t>
+          <t>t-892583343426072576</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-917061971631108097</t>
+          <t>t-624613462476337152</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-917080429227778048</t>
+          <t>t-624628271745998852</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,7 +7044,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-917105709682216960</t>
+          <t>t-720146113794183169</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -7057,11 +7057,11 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-996477889779511296</t>
+          <t>t-728815708801531904</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C510" t="n">
         <v>1</v>
@@ -7070,46 +7070,46 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-1018785093295464448</t>
+          <t>t-728860742099849216</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-1048216558785449986</t>
+          <t>t-877183876254269441</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-999158779580121089</t>
+          <t>t-877213422538158080</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-670699425879191552</t>
+          <t>t-948800001890713600</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-756468934379966464</t>
+          <t>t-955539710214057984</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,7 +7135,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-861227956118716416</t>
+          <t>t-955816204769390593</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,50 +7148,50 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-712917955391172609</t>
+          <t>t-753246884345487361</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-742289179535659008</t>
+          <t>t-867803560930627585</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-743359058392940544</t>
+          <t>t-868025997010055168</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-587481090845179905</t>
+          <t>t-868097086021095425</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
         <v>1</v>
@@ -7200,20 +7200,20 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-612970627083968512</t>
+          <t>t-869075299467763714</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-743905323543629825</t>
+          <t>t-873880943819460609</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,20 +7226,20 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-877183876254269441</t>
+          <t>t-874034580747104259</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-877213422538158080</t>
+          <t>t-874852269765931008</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,24 +7252,24 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-1024752032350195712</t>
+          <t>t-880840050245849088</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-776349771640496128</t>
+          <t>t-740216200379158528</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
         <v>1</v>
@@ -7278,7 +7278,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-609461898141147136</t>
+          <t>t-740233298862080000</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-873880943819460609</t>
+          <t>t-740234615814819840</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,33 +7304,33 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-874034580747104259</t>
+          <t>t-740250007081766912</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-874852269765931008</t>
+          <t>t-740302081416962049</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-1008938317684060160</t>
+          <t>t-899696948046856192</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,7 +7343,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-1008975928465248256</t>
+          <t>t-1013800752567996416</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,20 +7356,20 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-1008978373484400640</t>
+          <t>t-1038016191711928321</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-1008995195113918464</t>
+          <t>t-1038359113791680512</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,7 +7382,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1009346793090506752</t>
+          <t>t-636903909362167808</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -7395,37 +7395,37 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1009539540728639490</t>
+          <t>t-642781966346010625</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1010058406223400966</t>
+          <t>t-643095780228771840</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-1011026406564823042</t>
+          <t>t-643795122480631808</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
         <v>1</v>
@@ -7434,11 +7434,11 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-884366275937521664</t>
+          <t>t-880072530329038848</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C539" t="n">
         <v>0</v>
@@ -7447,33 +7447,33 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-633506882188021761</t>
+          <t>t-723039191961985026</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-900842879182131201</t>
+          <t>t-910016271554576384</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-643112220348534784</t>
+          <t>t-974126323248586752</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,33 +7486,33 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-652058053697765376</t>
+          <t>t-669879511748579329</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-653076415596888064</t>
+          <t>t-670195512713330689</t>
         </is>
       </c>
       <c r="B544" t="n">
         <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-953295637679951872</t>
+          <t>t-1005827335977885696</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -7525,7 +7525,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-953311292475011072</t>
+          <t>t-808055620339384324</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -7538,37 +7538,37 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-984045729260982272</t>
+          <t>t-695507166833184769</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-674905913438769153</t>
+          <t>t-943797632639610881</t>
         </is>
       </c>
       <c r="B548" t="n">
         <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-685089211784019968</t>
+          <t>t-704826129178370050</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C549" t="n">
         <v>1</v>
@@ -7577,85 +7577,85 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-701060752074010624</t>
+          <t>t-715202576552169472</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-703191098403872769</t>
+          <t>t-781871738888065024</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-703191473269780480</t>
+          <t>t-720951969716809728</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-703218090671214592</t>
+          <t>t-956932857389309953</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-703248568765779969</t>
+          <t>t-957576777848717312</t>
         </is>
       </c>
       <c r="B554" t="n">
         <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-703357904250757120</t>
+          <t>t-957930793187397632</t>
         </is>
       </c>
       <c r="B555" t="n">
         <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-703380366254612480</t>
+          <t>t-737563920496349185</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,24 +7668,24 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-703605156500381696</t>
+          <t>t-737976116753883136</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-704826129178370050</t>
+          <t>t-738434736910176256</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C558" t="n">
         <v>1</v>
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-781871738888065024</t>
+          <t>t-952868151414403072</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,20 +7707,20 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-730493187534413824</t>
+          <t>t-738250548865032192</t>
         </is>
       </c>
       <c r="B560" t="n">
         <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-730679314916757504</t>
+          <t>t-738751926372827136</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,33 +7733,33 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-736808558038265858</t>
+          <t>t-745170424456052736</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-737558350011867138</t>
+          <t>t-1005463006455754752</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-738417908926320643</t>
+          <t>t-740666936263118848</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,7 +7772,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-738664460173381632</t>
+          <t>t-741525012784553985</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,7 +7785,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-743471999876472833</t>
+          <t>t-755694559401762816</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -7798,7 +7798,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-1003603539539742720</t>
+          <t>t-795263551388663808</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,7 +7811,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-737976116753883136</t>
+          <t>t-801835115894755328</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,11 +7824,11 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-738434736910176256</t>
+          <t>t-827575866729361408</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
         <v>0</v>
@@ -7837,33 +7837,33 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-952868151414403072</t>
+          <t>t-960991499604328448</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-949338992599883776</t>
+          <t>t-867414851802599424</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-949550500269166593</t>
+          <t>t-1002130830792241153</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,76 +7876,76 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-958391208602193920</t>
+          <t>t-887201249715789824</t>
         </is>
       </c>
       <c r="B573" t="n">
         <v>1</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-738762935133188098</t>
+          <t>t-906119454941171712</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-811198180654272512</t>
+          <t>t-956067919263346688</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-902928093131808770</t>
+          <t>t-956083408882536448</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-906057103172923392</t>
+          <t>t-977185697940623360</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-741525012784553985</t>
+          <t>t-988749833476325376</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -7954,7 +7954,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-766238666905747456</t>
+          <t>t-992783370114433024</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-834984907881525249</t>
+          <t>t-1003736255149027328</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,33 +7980,33 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-852631745438601216</t>
+          <t>t-1006233702052057088</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-989189175357276160</t>
+          <t>t-1051774073523634182</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-991723021709832193</t>
+          <t>t-1052071039923044352</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,98 +8019,98 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-992831860215615489</t>
+          <t>t-1052145118726238209</t>
         </is>
       </c>
       <c r="B584" t="n">
         <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-855547644516732928</t>
+          <t>t-1052182549513035776</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-855563578274754560</t>
+          <t>t-675498810152325120</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-867414851802599424</t>
+          <t>t-931841011340296192</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-946052034461040640</t>
+          <t>t-557932086149918722</t>
         </is>
       </c>
       <c r="B588" t="n">
         <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-991783836206936065</t>
+          <t>t-558466774392266752</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-892499939137335296</t>
+          <t>t-558501767688642560</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-1038090181595877376</t>
+          <t>t-558892309320724482</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-953919004132986880</t>
+          <t>t-559263075183104000</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,46 +8136,46 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-948508791448002560</t>
+          <t>t-559573400780156928</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-949999091047477249</t>
+          <t>t-575891615593721856</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-955806828146827266</t>
+          <t>t-579789832131575808</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-977185697940623360</t>
+          <t>t-580874616324943872</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,33 +8188,33 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-1003659615115141120</t>
+          <t>t-674391856298385408</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-950875222734929921</t>
+          <t>t-674458539629219844</t>
         </is>
       </c>
       <c r="B598" t="n">
         <v>1</v>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-950925554487738369</t>
+          <t>t-852554541803417600</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,33 +8227,33 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-495525926722367488</t>
+          <t>t-854250685419986949</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-590545916886659072</t>
+          <t>t-854262837673246720</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-678069780989870080</t>
+          <t>t-1041319973430255616</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,11 +8266,11 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-786169556586770432</t>
+          <t>t-511340405753786369</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C603" t="n">
         <v>1</v>
@@ -8279,11 +8279,11 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-529938272265703424</t>
+          <t>t-520490218210594817</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
         <v>1</v>
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-566257094865981440</t>
+          <t>t-650617914194694144</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,24 +8305,24 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-616630261191716864</t>
+          <t>t-727016962102980608</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-686071224749821953</t>
+          <t>t-727141031607595008</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C607" t="n">
         <v>1</v>
@@ -8331,50 +8331,50 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-719019371499130881</t>
+          <t>t-732742567545077761</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-740084104088199168</t>
+          <t>t-732880819631460356</t>
         </is>
       </c>
       <c r="B609" t="n">
         <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-755613145079484416</t>
+          <t>t-732926405818753025</t>
         </is>
       </c>
       <c r="B610" t="n">
         <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-785398387059269632</t>
+          <t>t-733131015837745153</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C611" t="n">
         <v>1</v>
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-796846317632790528</t>
+          <t>t-733131209660735493</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-798050241861840896</t>
+          <t>t-733188233803128832</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-798099061475684352</t>
+          <t>t-733201290151514113</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,33 +8422,33 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-837558511772938241</t>
+          <t>t-827493643661381632</t>
         </is>
       </c>
       <c r="B615" t="n">
         <v>1</v>
       </c>
       <c r="C615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-837704571640246272</t>
+          <t>t-838217823608438784</t>
         </is>
       </c>
       <c r="B616" t="n">
         <v>1</v>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-930305225726054400</t>
+          <t>t-869476060991152129</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-994075228354510848</t>
+          <t>t-871870603011043328</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,20 +8474,20 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-499804424827457538</t>
+          <t>t-872126007855038464</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-499826521846972416</t>
+          <t>t-914680114595602432</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-632870673115774976</t>
+          <t>t-916572694472155137</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,24 +8513,24 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-650617914194694144</t>
+          <t>t-922122902136172545</t>
         </is>
       </c>
       <c r="B622" t="n">
         <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-762938358486052865</t>
+          <t>t-545488523856338944</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C623" t="n">
         <v>1</v>
@@ -8539,11 +8539,11 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-777605888655761409</t>
+          <t>t-574404715376603136</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C624" t="n">
         <v>1</v>
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-778041943855026178</t>
+          <t>t-662632429539057666</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-778431677144018944</t>
+          <t>t-662681193154920448</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,37 +8578,37 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-869476060991152129</t>
+          <t>t-663567974029131776</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-922122902136172545</t>
+          <t>t-669092226840981504</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-985916719981060097</t>
+          <t>t-671487099355426816</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C629" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-985984041508720641</t>
+          <t>t-671928198360391680</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,24 +8630,24 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-583500409458688000</t>
+          <t>t-672328618379362304</t>
         </is>
       </c>
       <c r="B631" t="n">
         <v>1</v>
       </c>
       <c r="C631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-583500450495795200</t>
+          <t>t-673050773710839808</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632" t="n">
         <v>1</v>
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-583501741481594881</t>
+          <t>t-708275780988473345</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-583504251168497664</t>
+          <t>t-709001129091174403</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-583504875067056129</t>
+          <t>t-709281433978687488</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,11 +8695,11 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-584246834618474497</t>
+          <t>t-749065341586726912</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C636" t="n">
         <v>1</v>
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-674612681832140800</t>
+          <t>t-769774311968079872</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,24 +8721,24 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-675871788564283392</t>
+          <t>t-836823983353909248</t>
         </is>
       </c>
       <c r="B638" t="n">
         <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-683221184775733248</t>
+          <t>t-845583720950128640</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
         <v>1</v>
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-733931111152123906</t>
+          <t>t-918078962173075457</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-734714075603718144</t>
+          <t>t-918257100547014658</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,11 +8773,11 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-734767651981905921</t>
+          <t>t-529909835525939202</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-735043937040093185</t>
+          <t>t-578162074741661696</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,11 +8799,11 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-789409624138985476</t>
+          <t>t-586217765666623488</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C644" t="n">
         <v>1</v>
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-789409631646785537</t>
+          <t>t-706405441522143232</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,50 +8825,50 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-796319752176009216</t>
+          <t>t-783478326421704704</t>
         </is>
       </c>
       <c r="B646" t="n">
         <v>1</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-796346157156864001</t>
+          <t>t-830849870890102784</t>
         </is>
       </c>
       <c r="B647" t="n">
         <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-796369433241403393</t>
+          <t>t-830867426568867840</t>
         </is>
       </c>
       <c r="B648" t="n">
         <v>1</v>
       </c>
       <c r="C648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-796693709639168001</t>
+          <t>t-518708677113438208</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C649" t="n">
         <v>1</v>
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-797722245741223936</t>
+          <t>t-535750936824528896</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-797729987348418561</t>
+          <t>t-535750956848140288</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-797771440128860162</t>
+          <t>t-535751324143341568</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-797771478930366464</t>
+          <t>t-535754365856776193</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-797792110535528448</t>
+          <t>t-535786478451048448</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,20 +8942,20 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-798105876364029953</t>
+          <t>t-621352736672473089</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-799522784040849408</t>
+          <t>t-621526313216536576</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,20 +8968,20 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-836823983353909248</t>
+          <t>t-621967424384925696</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-839825336552468480</t>
+          <t>t-768634144851013633</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,20 +8994,20 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-922601399271112704</t>
+          <t>t-769506262551715840</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-973099299910250497</t>
+          <t>t-795674749028462592</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,20 +9020,20 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-706405441522143232</t>
+          <t>t-853130130432176128</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-756176490119647232</t>
+          <t>t-1032843605826621440</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,33 +9046,33 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-783478326421704704</t>
+          <t>t-971295308981383168</t>
         </is>
       </c>
       <c r="B663" t="n">
         <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-830849870890102784</t>
+          <t>t-801391859083988993</t>
         </is>
       </c>
       <c r="B664" t="n">
         <v>1</v>
       </c>
       <c r="C664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-830867426568867840</t>
+          <t>t-919610638351003649</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-930049646444945408</t>
+          <t>t-919611818183503872</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-930646694097645568</t>
+          <t>t-919614704967757825</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-934049646694998016</t>
+          <t>t-919712337681985537</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-961643380684959749</t>
+          <t>t-919728404907167744</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,11 +9137,11 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-1062500554134310912</t>
+          <t>t-919751765871886336</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C670" t="n">
         <v>1</v>
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-535750936824528896</t>
+          <t>t-919766847666274304</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-535750956848140288</t>
+          <t>t-919943414766063617</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-535751324143341568</t>
+          <t>t-920179252292739072</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-535754365856776193</t>
+          <t>t-920416544319926272</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,11 +9202,11 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-535786478451048448</t>
+          <t>t-689731867570900992</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C675" t="n">
         <v>1</v>
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-661588229892673536</t>
+          <t>t-833843048253681665</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-676067082081976320</t>
+          <t>t-834648744150892546</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,7 +9241,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-712147646559879168</t>
+          <t>t-922457591313137664</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,11 +9254,11 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-801312317355003904</t>
+          <t>t-922793297873010689</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
         <v>0</v>
@@ -9267,33 +9267,33 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-817345259164221440</t>
+          <t>t-961453081543065600</t>
         </is>
       </c>
       <c r="B680" t="n">
         <v>0</v>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-936830929384828928</t>
+          <t>t-734168300121395200</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-936988511051292672</t>
+          <t>t-815040393884467200</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-989542585978052610</t>
+          <t>t-822808230711721984</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-523431319012139009</t>
+          <t>t-536910791295778816</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,11 +9332,11 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-780295387017949184</t>
+          <t>t-540747270207991808</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
         <v>1</v>
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-791933405902442497</t>
+          <t>t-708854826730295296</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-527311291191263232</t>
+          <t>t-715026472285708288</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-801391859083988993</t>
+          <t>t-577656940282540032</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-558428892898131968</t>
+          <t>t-544801968703557632</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,11 +9397,11 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-558596887519850496</t>
+          <t>t-993018034288705536</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -9410,11 +9410,11 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-685036854010339328</t>
+          <t>t-557074144505114625</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C691" t="n">
         <v>1</v>
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-797741772730306560</t>
+          <t>t-908138128514437120</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-797789959478353920</t>
+          <t>t-555130566706622465</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-797794521597644800</t>
+          <t>t-594000547591553024</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-924811540154540032</t>
+          <t>t-594263552824741888</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,20 +9475,20 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-924943312192073729</t>
+          <t>t-594718318050684929</t>
         </is>
       </c>
       <c r="B696" t="n">
         <v>1</v>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-540747270207991808</t>
+          <t>t-595757559006507011</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-558414856756293634</t>
+          <t>t-706439330877714432</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,20 +9514,20 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-558416982677422081</t>
+          <t>t-940363500475465728</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-702026039967531008</t>
+          <t>t-561946682707812352</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-723151439586013184</t>
+          <t>t-936534965277294597</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-965551093982769152</t>
+          <t>t-936606274795462656</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,20 +9566,20 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-607931728045338625</t>
+          <t>t-795497536291094528</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-692022677649797120</t>
+          <t>t-932461262268661760</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,7 +9592,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-809685070428524546</t>
+          <t>t-932590015711993858</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,33 +9605,33 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-1039555557609201664</t>
+          <t>t-932596112241786880</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-547937617547771905</t>
+          <t>t-932690981908074496</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-824143990274588672</t>
+          <t>t-932881287005835264</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,11 +9644,11 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-993018034288705536</t>
+          <t>t-566151747232489472</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -9657,7 +9657,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-599804476774436864</t>
+          <t>t-584288298249531392</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-555130566706622465</t>
+          <t>t-720546793344270336</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-564756286211100672</t>
+          <t>t-753509017096364033</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,11 +9696,11 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-565303060420112386</t>
+          <t>t-843318937064366080</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-565336619021262848</t>
+          <t>t-765452831297970176</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,11 +9722,11 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-895185499131961344</t>
+          <t>t-833819761821757440</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,11 +9735,11 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-954254379967660032</t>
+          <t>t-935417453286326277</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C716" t="n">
         <v>1</v>
@@ -9748,11 +9748,11 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-1016952321333497856</t>
+          <t>t-792051379564969985</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
         <v>0</v>
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-563225583400648704</t>
+          <t>t-691264325659422721</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,11 +9774,11 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-698712295900229633</t>
+          <t>t-691280497184362497</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
         <v>1</v>
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-870645957704265729</t>
+          <t>t-820218394255339521</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-870651401311014912</t>
+          <t>t-829258775257346048</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,20 +9813,20 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-642718104875732992</t>
+          <t>t-829280839464845312</t>
         </is>
       </c>
       <c r="B722" t="n">
         <v>1</v>
       </c>
       <c r="C722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-777104599379423233</t>
+          <t>t-829291437292396544</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-777106884058763264</t>
+          <t>t-829294998201970688</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-845628167855357953</t>
+          <t>t-829512724761620480</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,24 +9865,24 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-863292024522395649</t>
+          <t>t-786434119072821249</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-1016913242839367680</t>
+          <t>t-760724447745699841</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C727" t="n">
         <v>1</v>
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-640851401892065280</t>
+          <t>t-797677972547219456</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-792051379564969985</t>
+          <t>t-798490523820380160</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-837085298324619265</t>
+          <t>t-816256005461987328</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-796860246736052224</t>
+          <t>t-935334721793306624</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,26 +9943,13 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-1062157078439968770</t>
+          <t>t-935382314166693889</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>t-745577469814538240</t>
-        </is>
-      </c>
-      <c r="B733" t="n">
-        <v>1</v>
-      </c>
-      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
